--- a/master_table/MT_OntoWorldMap_2023-10-11.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-10-11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="5" activeTab="18"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -6041,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="37">
-        <v>216</v>
+        <v>15178</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21">
@@ -6441,7 +6441,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="38">
-        <v>65</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21">
@@ -6451,7 +6451,7 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="38">
-        <v>51</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21">
@@ -6461,7 +6461,7 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="38">
-        <v>32</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21">
@@ -6471,7 +6471,7 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="38">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21">
@@ -6481,7 +6481,7 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="38">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="21">
@@ -6491,7 +6491,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="38">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="21">
@@ -6501,7 +6501,7 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="38">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="29.25" thickBot="1">
@@ -7543,7 +7543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
@@ -15392,9 +15392,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15530,26 +15533,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15573,9 +15565,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>